--- a/storage/holidays/Holiday_sample_sheet.xlsx
+++ b/storage/holidays/Holiday_sample_sheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manjari\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAYTECH\Desktop\L5-HRMS\public\sample_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>occasion</t>
+  </si>
   <si>
     <t>date_from</t>
   </si>
@@ -32,20 +35,17 @@
     <t>date_to</t>
   </si>
   <si>
-    <t>chhat pooja</t>
-  </si>
-  <si>
-    <t>Diwali</t>
-  </si>
-  <si>
-    <t>Occasion</t>
+    <t>easter festival</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -56,12 +56,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -85,13 +79,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,7 +121,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -138,7 +133,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -155,9 +150,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -185,31 +180,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -237,23 +215,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,48 +367,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2"/>
-    <col min="2" max="1025" width="8.5703125" style="2"/>
-    <col min="1026" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="21.140625"/>
+    <col min="2" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>43027</v>
-      </c>
-      <c r="C2" s="3">
-        <v>43028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>43034</v>
-      </c>
-      <c r="C3" s="3">
-        <v>43035</v>
+      <c r="B2" s="2">
+        <v>44106</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44106</v>
       </c>
     </row>
   </sheetData>
